--- a/cities.xlsx
+++ b/cities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -30,54 +30,18 @@
     <t>Image URL</t>
   </si>
   <si>
-    <t>Mayor</t>
-  </si>
-  <si>
-    <t>Candidates for Mayor</t>
-  </si>
-  <si>
-    <t>Capital city of Romania</t>
-  </si>
-  <si>
-    <t>Nicușor Dan</t>
-  </si>
-  <si>
     <t>Cluj-Napoca</t>
   </si>
   <si>
-    <t>Major city in Transylvania</t>
-  </si>
-  <si>
-    <t>Emil Boc</t>
-  </si>
-  <si>
     <t>Timișoara</t>
   </si>
   <si>
-    <t>Major city in western Romania</t>
-  </si>
-  <si>
-    <t>Dominic Fritz</t>
-  </si>
-  <si>
     <t>Iași</t>
   </si>
   <si>
-    <t>Major city in northeastern Romania</t>
-  </si>
-  <si>
-    <t>Mihai Chirica</t>
-  </si>
-  <si>
     <t>Constanța</t>
   </si>
   <si>
-    <t>Major city and port on the Black Sea coast</t>
-  </si>
-  <si>
-    <t>Vergil Chițac</t>
-  </si>
-  <si>
     <t>București</t>
   </si>
   <si>
@@ -96,14 +60,4183 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/f/fa/Cazinoul_si_faleza_din_Constanta.jpg</t>
   </si>
   <si>
-    <t>['Candidate1', 'Candidate2', 'Candidate3']</t>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Brașov</t>
+  </si>
+  <si>
+    <t>Craiova</t>
+  </si>
+  <si>
+    <t>Galați</t>
+  </si>
+  <si>
+    <t>Oradea</t>
+  </si>
+  <si>
+    <t>Ploiești</t>
+  </si>
+  <si>
+    <t>Brăila</t>
+  </si>
+  <si>
+    <t>Arad</t>
+  </si>
+  <si>
+    <t>Pitești</t>
+  </si>
+  <si>
+    <t>Bacău</t>
+  </si>
+  <si>
+    <t>Sibiu</t>
+  </si>
+  <si>
+    <t>Târgu Mureș</t>
+  </si>
+  <si>
+    <t>Baia Mare</t>
+  </si>
+  <si>
+    <t>Râmnicu Vâlcea</t>
+  </si>
+  <si>
+    <t>Buzău</t>
+  </si>
+  <si>
+    <t>Satu Mare</t>
+  </si>
+  <si>
+    <t>Botoșani</t>
+  </si>
+  <si>
+    <t>Suceava</t>
+  </si>
+  <si>
+    <t>Drobeta-Turnu Severin</t>
+  </si>
+  <si>
+    <t>Piatra Neamț</t>
+  </si>
+  <si>
+    <t>Bistrița</t>
+  </si>
+  <si>
+    <t>Târgu Jiu</t>
+  </si>
+  <si>
+    <t>Târgoviște</t>
+  </si>
+  <si>
+    <t>Focșani</t>
+  </si>
+  <si>
+    <t>Tulcea</t>
+  </si>
+  <si>
+    <t>Alba Iulia</t>
+  </si>
+  <si>
+    <t>Slatina</t>
+  </si>
+  <si>
+    <t>Vaslui</t>
+  </si>
+  <si>
+    <t>Reșița</t>
+  </si>
+  <si>
+    <t>Călărași</t>
+  </si>
+  <si>
+    <t>Giurgiu</t>
+  </si>
+  <si>
+    <t>Deva</t>
+  </si>
+  <si>
+    <t>Zalău</t>
+  </si>
+  <si>
+    <t>Sfântu Gheorghe</t>
+  </si>
+  <si>
+    <t>Slobozia</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Miercurea Ciuc</t>
+  </si>
+  <si>
+    <t>București este capitala României, cel mai populat oraș și cel mai important centru industrial și comercial al țării. Populația stabilă de 1.716.983 de locuitori (2021) face ca Bucureștiul să fie printre marile orașe din Uniunea Europeană. Conform unor estimări ce iau în considerare persoanele fără domiciliu în oraș, sau în tranzit, Bucureștiul adună zilnic peste trei milioane de oameni. La acestea se adaugă faptul că localitățile din preajma orașului, care fac parte din Zona Metropolitană, însumează o populație de aproximativ 430.000 de locuitori.</t>
+  </si>
+  <si>
+    <t>Timișoara este municipiul de reședință al județului Timiș, Banat, România. Se află în vestul României, aproape de frontierele cu Ungaria și Serbia, pe malul râului Bega. Numele localității provine de la cel al râului Timiș, combinat cu substantivul maghiar vár, „cetate”, adică Cetatea Timișului. Situat pe râul Bega, Timișoara este cel mai mare și important oraș al regiunii istorice Banat. Din 1848 și până în 1860 a fost capitala Voivodinei Sârbești și Banatului Timișan. După Primul Război Mondial Timișoara a intrat în componența României. În anul 1989, orașul a fost focarul Revoluției Române, care a îndepărtat de la guvernare regimul comunist. Timișoara este capitala regiunii de dezvoltare Vest și cel mai important oraș al macroregiunii de dezvoltare Sud-Vest a României.</t>
+  </si>
+  <si>
+    <t>Craiova este municipiul de reședință al județului Dolj, Oltenia, România, format din localitățile componente Craiova (reședința), Făcăi, Mofleni, Popoveni și Șimnicu de Jos, și din satele Cernele, Cernelele de Sus, Izvorul Rece și Rovine. Craiova este cel mai important centru cultural, istoric și economic al Olteniei. Conform recensământului din anul 2021 orașul avea o populație de 234.140 de locuitori.</t>
+  </si>
+  <si>
+    <t>Galați este municipiul de reședință al județului cu același nume, Moldova, România. Este singura localitate din România decorată cu Crucea de Război Franceză, respectiv Italiană, după rezistența eroică a românilor din oraș împotriva bolșevicilor și-a Puterilor Centrale deopotrivă. Se află în apropiere de frontiera triplă sudică cu Republica Moldova și Ucraina. Orașul Galați are o istorie încărcată și datorită faptului că este plasat pe Dunăre, o importantă arteră comercial-fluvială europeană. Viața economică (in vremuri moderne) s-a dezvoltat în jurul Șantierului Naval, Portului Fluvial, în jurul Combinatului Siderurgic și a Portului Mineralier.</t>
+  </si>
+  <si>
+    <t>Oradea, mai demult Oradea Mare, este municipiul de reședință al județului Bihor, Crișana, România. Se află în vestul României, pe râul Crișul Repede, în imediata apropiere a frontierei cu Ungaria. Totodată, Oradea este și cel mai important oraș din regiunea istorică Crișana. La recensământul din 2021 municipiul avea 183.105 de locuitori. Zona metropolitană, care include și 11 comune învecinate, avea, în anul 2002, o populație de 249.746 locuitori, dintre care 68,2 % români, 28,7 % maghiari ș.a.</t>
+  </si>
+  <si>
+    <t>Ploiești este municipiul de reședință al județului Prahova, Muntenia, România. Este situat la 60 km nord de București, pe coordonatele de 26°1'48" longitudine estică și 44°56'24" latitudine nordică și are o suprafață de aproape 60 km². Este înconjurat de comunele Blejoi (la nord), Târgșoru Vechi (la vest), Bărcănești, Brazi (la sud) și Bucov (la est). Municipiul Ploiești se găsește în apropierea regiunii viticole Dealu Mare-Valea Călugărească și are acces direct la Valea Prahovei, cea mai importantă zonă de turism alpin din România. Ploieștiul este un important nod de transport, situându-se pe drumurile care leagă capitala București de Transilvania și Moldova.</t>
+  </si>
+  <si>
+    <t>Pitești este municipiul de reședință al județului Argeș, Muntenia, România. Se află în Podișul Getic; lângă Argeș; și la o altitudine de 289 m deasupra nivelului mării. Are o suprafață de 111 km². Populația este de 141.275 locuitori, determinată în 1 decembrie 2021, prin recensământ, chestionar.</t>
+  </si>
+  <si>
+    <t>Târgu Mureș este municipiul de reședință al județului Mureș, Transilvania, România, format din localitățile componente Mureșeni, Remetea și Târgu Mureș (reședința). Se află în centrul Transilvaniei istorice, pe ambele maluri ale cursului superior al râului Mureș. Situat în zona central-nordică a României, orașul are ca delimitare geografică râul Mureș și dealul Cornești. Târgu Mureș se învecinează cu comunele Sângeorgiu de Mureș, Cristești, Livezeni, Corunca, Sântana de Mureș și Sâncraiu de Mureș. De-a lungul timpului, a fost centrul cultural, industrial, economic și de educație al Ținutului Secuiesc. Târgu Mureș a fost reședința Scaunului Mureș, Comitatului Mureș-Turda, apoi a Regiunii Mureș, a Regiunii Autonome Maghiare, a Regiunii Mureș-Autonome Maghiare, iar în prezent este reședința județului Mureș. Împreună cu autoritățile a douăsprezece comune și orașe din jur, primăria participă la proiectul Zonei Metropolitane Târgu Mureș. Ca mărime, orașul este al șaisprezecelea din România și al șaselea din Transilvania. Conform recensământului din 2002, aici trăia cea mai mare comunitate maghiară urbană din România.</t>
+  </si>
+  <si>
+    <t>Buzău este municipiul de reședință al județului cu același nume, Muntenia, România. Având 103.481 de locuitori la recensământul din 2021, este al optsprezecelea oraș ca populație din România. Orașul se află pe malul drept al râului Buzău, în dreptul ieșirii acestuia dintre dealurile subcarpatice de curbură, într-o regiune cu climă temperată. În perioada comunistă orașul s-a extins mult, triplându-și populația, și au fost construite numeroase fabrici, din care mare parte funcționează și astăzi, în contextul trecerii la o economie de piață.</t>
+  </si>
+  <si>
+    <t>Satu Mare este municipiul de reședință al județului cu același nume, Transilvania, România, format din localitatea componentă Satu Mare (reședința), și din satul Sătmărel. În trecut, Satu Mare a fost reședința Comitatului Sătmar și a județului interbelic Satu Mare. Are o populație de 91.520 locuitori în 2021.</t>
+  </si>
+  <si>
+    <t>Botoșani este municipiul de reședință al județului cu același nume, Moldova, România. Se află în Câmpia Jijiei, la o altitudine de 170 m deasupra nivelului mării. Are o suprafață de 41 km². Populația este de 90.010 locuitori, determinată în 1 decembrie 2021, prin recensământ, chestionar. Este așezat în partea de sud-vest a județului Botoșani, pe interfluviul dintre râurile Sitna și Dresleuca, spre vest între Dresleuca și Siret, apoi coboară între dealurile Crivăț, Agafton, Baisa, în adâncuri sprijinindu-se pe platforma Moldovei.</t>
+  </si>
+  <si>
+    <t>Suceava este municipiul de reședință al județului cu același nume, Bucovina, România. Localitatea se află în sud-estul regiunii istorice Bucovina (cu excepția cartierului Burdujeni). Orașul este situat în Podișul Sucevei, pe cursul râului cu același nume, la 21 km distanță de vărsarea în Siret. Municipiul Suceava este unul dintre cele mai vechi și importante orașe ale României, datând din Evul Mediu, în prezent fiind tranzitat de drumul european E85 (DN2), care asigură legătura rutieră cu București, față de care se află la 432 km. Magistrala CFR 500 străbate orașul, care este nod feroviar, de aici desprinzându-se linia ferată către Transilvania.</t>
+  </si>
+  <si>
+    <t>Piatra-Neamț este municipiul de reședință al județului Neamț, Moldova, România, format din localitățile componente Ciritei, Doamna, Piatra Neamț (reședința) și Văleni. Situat pe valea Bistriței, în nord-estul României, orașul avea la nivelul anului 2021 o populație de 79.679 de locuitori. În Piatra-Neamț se află sediul Agenției pentru Dezvoltare Regională Nord-Est.</t>
+  </si>
+  <si>
+    <t>Târgoviște este municipiul de reședință al județului Dâmbovița, Muntenia, România. Reprezintă principalul centru economic, cultural, politic și administrativ al județului Dâmbovița. Împreună cu acesta face parte din regiunea de dezvoltare Sud-Muntenia. Este situat în partea central sudică a României și este străbătut de paralela 44°55'27"N și meridianul 25°27'24"E, fiind poziționat la trecerea dintre Câmpia Română și dealurile Subcarpaților ce continuă spre Munții Bucegi. Târgoviște se află la o distanță de 80 km de București, capitala României. Reședință domnească și capitală între 1396 și 1714, orașul a deținut mai bine de trei secole statutul de cel mai important centru economic, politico-militar și cultural-artistic al regiunii, Târgoviște fiind cetatea de scaun a Țării Românești.</t>
+  </si>
+  <si>
+    <t>Tulcea este municipiul de reședință al județului cu același nume, Dobrogea, România, format din localitățile componente Tudor Vladimirescu și Tulcea (reședința). Este situat pe 7 coline din Dealurile Tulcei, pe o vatră populată continuu începând din perioada culturii Gumelnița (2900 - 2200 î.C.), continuând cu așezarea greacă Aegyssus (secolul VIII î.C.), cu portul și orașul roman din secolele I - II d. C. , cu orașul numit Tulcea din vremea lui Mircea cel Bătrân. Sub stăpânirea otomană orașul decade, un reviriment înregistrându-se odată cu deschiderea canalului Sulina. Orașul a fost atestat documentar în anul 1506. S-a aflat sub stăpânire otomană între anii 1420 și 1877.</t>
+  </si>
+  <si>
+    <t>Slatina este municipiul de reședință al județului Olt, Oltenia, România, format din localitățile componente Cireașov și Slatina (reședința). Orașul este situat în sudul României, pe malul stâng al râului Olt în regiunea istorică Muntenia (la granița cu regiunea Olteniei) în zona de contact dintre Podișul Getic și Câmpia Română. Slatina are o populație de 63.487 de locuitori, fiind un important centru industrial. Având o istorie de 650 de ani și un centru istoric conservat, orașul deține un important rol cultural în județ. Emblema orașului este podul peste râul Olt.</t>
+  </si>
+  <si>
+    <t>Vaslui este municipiul de reședință al județului cu același nume, Moldova, România, format din localitățile componente Bahnari, Brodoc, Moara Grecilor, Rediu, Vaslui (reședința) și Viișoara. Se află în estul României, aproape de frontiera cu Republica Moldova. Este atestat documentar în anul 1375.</t>
+  </si>
+  <si>
+    <t>Reșița este municipiul de reședință al județului Caraș-Severin, Banat, România, format din localitățile componente Câlnic, Cuptoare, Doman, Reșița (reședința), Secu și Țerova, și din satul Moniom.</t>
+  </si>
+  <si>
+    <t>Giurgiu este municipiul de reședință al județului cu același nume, Muntenia, România. Este un port fluvial important și un punct de frontieră cu Bulgaria. Are o suprafață de 5.388 ha.</t>
+  </si>
+  <si>
+    <t>Deva este municipiul de reședință al județului Hunedoara, Transilvania, România, format din localitățile componente Deva (reședința) și Sântuhalm, și din satele Archia, Bârcea Mică și Cristur.</t>
+  </si>
+  <si>
+    <t>Zalău este municipiul de reședință al județului Sălaj, Transilvania, România, format din localitățile componente Stâna și Zalău (reședința). Conform recensământului din anul 2021, Zalău are o populație de 52.132 locuitori.</t>
+  </si>
+  <si>
+    <t>Sfântu Gheorghe este municipiul de reședință al județului Covasna, România, aflat în regiunea istorică Transilvania, format din localitatea componentă Sfântu Gheorghe (reședința), și din satele Chilieni și Coșeni. Are o suprafață de 7.292 ha.</t>
+  </si>
+  <si>
+    <t>Slobozia este municipiul de reședință al județului Ialomița, Muntenia, România, format din localitățile componente Bora, Slobozia (reședința) și Slobozia Nouă. Orașul a fost construit pe rămășițele vechii cetăți romane Netindava. Slobozia este cel mai mare municipiu al județului Ialomița, România. Potrivit recensământului din 2021, are o populație de 43.553 de locuitori. Conform ultimelor estimări oficiale ale Institutului Național de Statistică, populația municipiului este în continuă scădere. Stațiunea balneoclimaterică Amara se află la doar 7 km distanță de centrul municipiului, dispunând de o infrastructură dezvoltată pentru tratament. Patroni ai orașului sunt considerați Sfinții Arhangheli Mihail și Gavriil, ocrotitorii primului lăcaș de cult construit în această zonă, încă existent, mănăstirea Slobozia, dar ziua orașului este sărbătorită (încă de la instituire) de sărbătoarea Înălțării Domnului, hramul actualei catedrale episcopale.</t>
+  </si>
+  <si>
+    <t>Alexandria este municipiul de reședință al județului Teleorman, Muntenia, România. Orașul este așezat în sudul Câmpiei Române pe partea dreaptă a râului Vedea, în zona de contact a Câmpiei Boian cu Câmpia Găvanu-Burdea, la 41 de metri altitudine și are o suprafață de 9,56 km². Municipiul se află la 88 km distanță de București.</t>
+  </si>
+  <si>
+    <t>Miercurea Ciuc (în maghiară Csíkszereda) este municipiul de reședință al județului Harghita, Transilvania, România, format din localitățile componente Ciba, Harghita-Băi, Jigodin-Băi și Miercurea Ciuc (reședința). Miercurea Ciuc este cea mai mică reședință de județ din România. Numele orașului este atestat pentru prima dată sub forma Csíkszereda într-o scrisoare din anul 1558, cu referire la târgurile săptămânale ținute aici în zilele de miercuri. Până în perioada interbelică denumirea românească a orașului a fost Sereda Cicului, după care numele a fost tradus în forma actuală.</t>
+  </si>
+  <si>
+    <t>Sectorul 1 - București</t>
+  </si>
+  <si>
+    <t>Sectorul 1 este un sector în București situat în partea de nord-vest a municipiului, cuprins între sectoarele 2 și 6.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cluj-Napoca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numit doar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cluj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> până în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1974</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și în limbajul cotidian, este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Cluj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, aflat în regiunea istorică </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Având 286.598 de locuitori la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recensământul din 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, este al doilea oraș ca populație din țară. Cu o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istorie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de peste două milenii, orașul este supranumit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inima Transilvaniei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> sau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orașul comoară</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Iași</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moldova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. A fost capitala </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moldovei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> în perioada </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1564</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1859</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, una dintre cele două capitale ale </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principatelor Unite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> între </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1859</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1862</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și capitala </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regatului României</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> între </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1916</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1918</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (în perioada </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primului Război Mondial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, atunci când Bucureștiul s-a aflat sub ocupație germană). La recensământul din 2021, municipiul Iași avea o populație de 271.692 și era al patrulea oraș ca mărime din România. Conform Eurostat, cu o populație de 507.100 locuitori (în 2019), zona metropolitană Iași este a doua ca mărime din România (după București).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constanța </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dobrogea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Constanța (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mamaia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Palazu Mare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Constanța este unul dintre cele mai vechi orașe atestate de pe teritoriul României. Prima atestare documentară datează din 657 î.Hr. când pe locul actualei peninsule (și chiar sub apele de azi, în dreptul Cazinoului) s-a format o colonie greacă numită Tomis. Localitatea a fost cucerită de romani în 71 î.Hr. și redenumită Constantiana după sora împăratului Constantin cel Mare.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brașov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Brașov (reședința) și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poiana Brașov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Potrivit recensământului din </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, are o populație de 237.589 locuitori. Patron al orașului este considerată a fi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecioara Maria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Statuia acesteia se află pe unul dintre contraforturile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bisericii Negre,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> îndreptat spre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Casa Sfatului</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, având </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Brașovului sculptată dedesubt în relief. Brașovul este cel mai important oraș din regiunea de dezvoltare Centru.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brăila</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muntenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Conform recensământului din 2021, publicat de Institutul Național de Statistică, populația orașului era de 154.686 de locuitori, orașul fiind al 11-lea cel mai mare centru urban din țară după numărul de locuitori. În Brăila se află sediul Agenției de Dezvoltare Regională Sud-Est.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, la limita între regiunile istorice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crișana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Se află pe ambele maluri ale râului Mureș în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crișana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (cartierele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aradul Nou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Mureșel și Sânnicolaul Mic), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. La recensământul din anul 2021 Aradul avea o populație de 145.078 locuitori, fiind al doisprezecelea cel mai mare centru urban al României din punct de vedere demografic. Municipiul Arad constituie pentru vestul României un punct important în ceea ce privește industria și este un nod important în transporturile feroviare și rutiere.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bacău (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supranumit și „orașul lui Bacovia”) este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moldova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Este situat pe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>râul Bistrița</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pe care în oraș există două centrale hidroelectrice (Bacău I și Bacău II) ce acoperă o parte a consumului local de energie electrică. Suprafața municipiului este de 43 km², iar populația este de 136.087 de locuitori (2021). Orașul este traversat de drumurile europene </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E574</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ce fac legătura cu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bucureștiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cu nordul țării și cu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pe calea feroviară legăturile naționale și internaționale se realizează prin rețeaua </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CFR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Bacăul dispune de un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aeroport internațional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ce asigură curse regulate către diferite destinații naționale și europene.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sibiu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, din sudul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvaniei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Păltiniș</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și Sibiu (reședința). Sibiul este un important centru urban cultural, istoric, economic și ecleziastic din sudul Transilvaniei și din România, cu o populație de 134.309 locuitori conform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recensământului din 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Stațiunea de iarnă </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Păltiniș</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> se află la 32 km distanță de centrul municipiului, iar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lacul glaciar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bâlea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> se află la aproximativ 75 km distanță de oraș. Municipiul Sibiu a reprezentat și reprezintă încă unul dintre cele mai importante și înfloritoare orașe din Transilvania, precum și din România, în general.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baia Mare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Maramureș</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Baia Mare (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blidari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Firiza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valea Neagră</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Orașul este situat în depresiunea Baia Mare, pe cursul mijlociu al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>râului Săsar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, la poalele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Munților Gutâi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Cele mai importante centre miniere ale județului Maramureș sunt localizate în teritoriile ce înconjoară orașul Baia Mare. Regiunea este cunoscută nu doar pentru bogățiile subterane, ci și pentru împrejurimile ce-i conferă o frumusețe aparte locului.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Râmnicu Vâlcea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Vâlcea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oltenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aranghel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Căzănești</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copăcelu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dealu Malului</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poenari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Priba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Râmnicu Vâlcea (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Râureni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stolniceni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Troian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, și din satele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fețeni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goranu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lespezi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Săliștea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Are o populație de aproximativ 115,000 locuitori (2023). Se află așezat într-un punct geografic aproape central al României, nod de întâlnire a trei importante drumuri naționale (DN7, DN64 și DN67) și unul european (E81).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Drobeta-Turnu Severin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Mehedinți</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oltenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Drobeta-Turnu Severin (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dudașu Schelei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gura Văii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Schela Cladovei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Localitatea s-a dezvoltat în apropierea castrului roman Drobeta, devenind dintr-un punct strategic inițial un oraș de răscruce a drumurilor pe uscat și pe apă care duceau la nord și la sud de Dunăre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bistrița </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Bistrița-Năsăud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Bistrița (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghinda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sărata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sigmir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Slătinița</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unirea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Viișoara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Este și cel mai mare oraș din acest județ, cu o populație de 78.877 locuitori (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Ocupă o suprafață de 14.547 ha.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Târgu Jiu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Gorj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oltenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bârsești</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Drăgoieni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iezureni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preajba Mare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Romanești</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Slobozia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Târgu Jiu (reședința) și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ursați</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Focșani</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Vrancea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, la limita între regiunile istorice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moldova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muntenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Focșani (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mândrești-Moldova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mândrești-Munteni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Potrivit recensământului din 2021, are o populație de 66.648 locuitori.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alba Iulia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, în slavona veche </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bălgrad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului Alba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, format din localitățile componente Alba Iulia (reședința), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bărăbanț</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micești</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oarda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pâclișa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Se află în zona de sud-vest a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transilvaniei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pe malul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>râului Mureș</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Călărași</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> este </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>municipiul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> de reședință al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>județului cu același nume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muntenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>România</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Este cel mai mare oraș al județului și unul din cele mai importante municipii din </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regiunea de dezvoltare Sud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Situat în sud-estul României, pe partea stângă a cursului </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brațului Borcea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dunării</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Călărașul este cunoscut pentru industria alimentară, industria de PAL melaminat, industria siderurgică, industria de hârtie și industria de prefabricate. Conform datelor finale ale recensământului populației din anul 2021, municipiul Călărași are o populație de 58.215 de locuitori. În Călărași se află sediul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agenției pentru Dezvoltare Regională Sud Muntenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sectorul 2 - București</t>
+  </si>
+  <si>
+    <t>Sectorul 3 - București</t>
+  </si>
+  <si>
+    <t>Sectorul 4 - București</t>
+  </si>
+  <si>
+    <t>Sectorul 5 - București</t>
+  </si>
+  <si>
+    <t>Sectorul 6 - București</t>
+  </si>
+  <si>
+    <r>
+      <t>Sectorul 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este o subunitate administrativ-teritorială a municipiului București. Este situat în partea de nord-est a municipiului </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>București</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cuprins între sectoarele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sectorul 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>București</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, situat în partea de est a municipiului, cuprins între sectoarele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sectorul 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>București</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, situat în partea de sud a municipiului, cuprins între sectoarele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sectorul 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>București</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, situat în partea de sud-vest a municipiului, cuprins între sectoarele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (la est) și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (la vest). În centrul orașului, sectorul 5 are granițe comune și cu sectoarele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sectorul 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> este un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>București</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, situat în partea de vest a municipiului, cuprins între sectoarele </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://mateoc.ro/wp-content/uploads/2017/08/brasov_mateoc.ro_-845x550.jpg</t>
+  </si>
+  <si>
+    <t>https://www.alohotels.ro/~uploads/images/locuri%20de%20vizitat%20craiova.jpeg</t>
+  </si>
+  <si>
+    <t>https://exploremag.ro/wp-content/uploads/2017/02/Gala%C8%9Bi-1-e1487677735334.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/d9/e3/80/d9e380825b70a7817f78f4b711da0a7d.jpg</t>
+  </si>
+  <si>
+    <t>https://img.directbooking.ro/getimage.ashx?f=Statiuni&amp;w=600&amp;h=399&amp;file=Statiune_2282_Ploiesti8c4c87a7-c089-4247-b505-e155969f31bf.jpg</t>
+  </si>
+  <si>
+    <t>https://urlaub-in-rumänien.de/wp-content/uploads/2021/05/braila-2.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSvyweLRa-w56b1LEmwGmexhp06aRwTT4ALmQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://christiantour.ro/blog/wp-content/uploads/2017/06/p1.jpg</t>
+  </si>
+  <si>
+    <t>https://blog.travelminit.ro/wp-content/uploads/2017/05/bacau.jpg</t>
+  </si>
+  <si>
+    <t>https://www.casa-vale.net/romania-poze-imagini/RO54008-sibiu-foto.jpg</t>
+  </si>
+  <si>
+    <t>https://www.locurifaine.ro/wp-content/uploads/2019/03/Obiective_Turistice_Targu_Mures.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTHEJBlHhhJ2oBPbjZmy4Ltza-mBZYLsQAKVQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://www.valceaturistica.ro/wp-content/uploads/articole-informatii-valcea/municipiul-ramnicu-valcea/panorama-ramnicu-valcea1.jpg</t>
+  </si>
+  <si>
+    <t>https://primariabuzau.ro/wp-content/uploads/2016/10/3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.presasm.ro/wp-content/uploads/2016/05/satu-mare-1.jpg</t>
+  </si>
+  <si>
+    <t>https://blog.hotelguru.ro/wp-content/uploads/2019/03/shutterstock_289283882.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSO12FF1PrOp8WD2xV68fWK9bANoN6wB97IFw&amp;s</t>
+  </si>
+  <si>
+    <t>https://drobetapress.ro/wp-content/uploads/2023/04/night-photo-of-the-palace.jpg</t>
+  </si>
+  <si>
+    <t>https://img.directbooking.ro/getimage.ashx?f=statiuni&amp;file=Statiune_59156ace-f535-4f9e-82fd-65f620c25ce4_Piatra%20Neamtpiatra_neamt_main.jpg.jpg</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/image-photo/drone-view-bistrita-city-nasaud-600nw-1180051099.jpg</t>
+  </si>
+  <si>
+    <t>https://img.directbooking.ro/getimage.ashx?f=Statiuni&amp;w=600&amp;h=399&amp;file=Statiune_9ecda5b6-686a-4ff8-ad15-cc27f4c602ae_Targu%20Jiutargujiu2.jpg.jpg</t>
+  </si>
+  <si>
+    <t>https://targovistenews.ro/live/wp-content/uploads/2020/05/Webp.net-resizeimage2.jpg</t>
+  </si>
+  <si>
+    <t>https://zilesinopti.ro/wp-content/uploads/2023/10/Focsani_March_2001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.turistulliber.ro/wp-content/uploads/2021/06/panorama-orasului-tulcea-1024x576.jpg</t>
+  </si>
+  <si>
+    <t>https://alba24.ro/wp-content/uploads/2023/08/totel-alba-iulia-1000x600.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTYANWQ6Ri5oI2s3m4y4XSVl0b0qRvoDrvXOg&amp;s</t>
+  </si>
+  <si>
+    <t>https://image.stirileprotv.ro/media/images/original/Aug2023/62372022.jpg</t>
+  </si>
+  <si>
+    <t>https://img.directbooking.ro/getimage.ashx?f=Statiuni&amp;w=600&amp;h=399&amp;file=Statiune_892b78aa-a46d-4484-969c-3c626ca490ad_Resitaresita1.jpg.jpg</t>
+  </si>
+  <si>
+    <t>https://calarasipress.ro/wp-content/uploads/2023/05/calarasi-borcea-dr-17-900x675-1.jpg?v=1683377810</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTE6USt4ugYdfIvuToTERHv-pizWhvGgD7Xzg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRQadD861Qt4rqsjQF1_7fd3jLsVxNeqmf4FQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRd4QPA938tE7xKyHvIys2EWhiBRQ9G7rcDBA&amp;s</t>
+  </si>
+  <si>
+    <t>https://www.radiovacanta.ro/wp-content/uploads/2024/04/438118340_750009110648706_8413422636067765173_n.jpg</t>
+  </si>
+  <si>
+    <t>https://www.sejururi.org/photos/poze-Slobozia-5035.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/91/c1/6b/91c16b3d571bb231d86402a0b6084367.jpg</t>
+  </si>
+  <si>
+    <t>https://www.sejururi.org/photos/poze-Miercurea-Ciuc-2120.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQH6s2ElA_GcIOnsJfy_sjJGUw7jGX8Gu387g&amp;s</t>
+  </si>
+  <si>
+    <t>https://www.agerpres.ro/foto/watermark/1151082?author=VIOREL+LAZARESCU+%2F+AGERPRES+FOTO</t>
+  </si>
+  <si>
+    <t>https://www.primarie3.ro/images/uploads/comunicate/IMG_1332.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.g4media.ro/wp-content/uploads/2022/02/sectorul-4.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTHk7AMKRLRXZIaLAWjdWutl6gWZ1Xq8aynLQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://b365.ro/wp-content/uploads/2023/03/337528771_867984977633714_967662142803623037_n.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,9 +4245,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,16 +4292,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,124 +4578,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1716983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>286598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>250849</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>271692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>263707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>237589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1">
+        <v>234140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>217851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1">
+        <v>183105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1">
+        <v>180539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1">
+        <v>154686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1">
+        <v>145078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="1">
+        <v>141275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="1">
+        <v>136087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="1">
+        <v>134309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1">
+        <v>116033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="1">
+        <v>108759</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="1">
+        <v>115000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1">
+        <v>103481</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1">
+        <v>91520</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1">
+        <v>90010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="1">
+        <v>84322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="1">
+        <v>79865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="1">
+        <v>79679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="1">
+        <v>78877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1">
+        <v>73545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="1">
+        <v>66965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1">
+        <v>66648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="1">
+        <v>65624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="1">
+        <v>64227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="1">
+        <v>63487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1">
+        <v>63035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1">
+        <v>58393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="1">
+        <v>58215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="1">
+        <v>54551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="1">
+        <v>53113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="1">
+        <v>52132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1">
+        <v>50080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="1">
+        <v>34484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1">
+        <v>238217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="1">
+        <v>362609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="1">
+        <v>549735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="1">
+        <v>287828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="1">
+        <v>241585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1">
+        <v>333422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5" tooltip="Brăila" display="https://ro.wikipedia.org/wiki/Br%C4%83ila"/>
+    <hyperlink ref="A13" r:id="rId6" tooltip="Arad" display="https://ro.wikipedia.org/wiki/Arad"/>
+    <hyperlink ref="A14" r:id="rId7" tooltip="Pitești" display="https://ro.wikipedia.org/wiki/Pite%C8%99ti"/>
+    <hyperlink ref="A15" r:id="rId8" tooltip="Bacău" display="https://ro.wikipedia.org/wiki/Bac%C4%83u"/>
+    <hyperlink ref="A16" r:id="rId9" tooltip="Sibiu" display="https://ro.wikipedia.org/wiki/Sibiu"/>
+    <hyperlink ref="A17" r:id="rId10" tooltip="Târgu Mureș" display="https://ro.wikipedia.org/wiki/T%C3%A2rgu_Mure%C8%99"/>
+    <hyperlink ref="A18" r:id="rId11" tooltip="Baia Mare" display="https://ro.wikipedia.org/wiki/Baia_Mare"/>
+    <hyperlink ref="A19" r:id="rId12" tooltip="Râmnicu Vâlcea" display="https://ro.wikipedia.org/wiki/R%C3%A2mnicu_V%C3%A2lcea"/>
+    <hyperlink ref="A20" r:id="rId13" tooltip="Buzău" display="https://ro.wikipedia.org/wiki/Buz%C4%83u"/>
+    <hyperlink ref="A21" r:id="rId14" tooltip="Satu Mare" display="https://ro.wikipedia.org/wiki/Satu_Mare"/>
+    <hyperlink ref="A22" r:id="rId15" tooltip="Botoșani" display="https://ro.wikipedia.org/wiki/Boto%C8%99ani"/>
+    <hyperlink ref="A23" r:id="rId16" tooltip="Suceava" display="https://ro.wikipedia.org/wiki/Suceava"/>
+    <hyperlink ref="A24" r:id="rId17" tooltip="Drobeta-Turnu Severin" display="https://ro.wikipedia.org/wiki/Drobeta-Turnu_Severin"/>
+    <hyperlink ref="A25" r:id="rId18" tooltip="Piatra Neamț" display="https://ro.wikipedia.org/wiki/Piatra_Neam%C8%9B"/>
+    <hyperlink ref="A26" r:id="rId19" tooltip="Bistrița" display="https://ro.wikipedia.org/wiki/Bistri%C8%9Ba"/>
+    <hyperlink ref="A27" r:id="rId20" tooltip="Târgu Jiu" display="https://ro.wikipedia.org/wiki/T%C3%A2rgu_Jiu"/>
+    <hyperlink ref="A28" r:id="rId21" tooltip="Târgoviște" display="https://ro.wikipedia.org/wiki/T%C3%A2rgovi%C8%99te"/>
+    <hyperlink ref="A29" r:id="rId22" tooltip="Focșani" display="https://ro.wikipedia.org/wiki/Foc%C8%99ani"/>
+    <hyperlink ref="A30" r:id="rId23" tooltip="Tulcea" display="https://ro.wikipedia.org/wiki/Tulcea"/>
+    <hyperlink ref="A31" r:id="rId24" tooltip="Alba Iulia" display="https://ro.wikipedia.org/wiki/Alba_Iulia"/>
+    <hyperlink ref="A32" r:id="rId25" tooltip="Slatina, România" display="https://ro.wikipedia.org/wiki/Slatina,_Rom%C3%A2nia"/>
+    <hyperlink ref="A33" r:id="rId26" tooltip="Vaslui" display="https://ro.wikipedia.org/wiki/Vaslui"/>
+    <hyperlink ref="A34" r:id="rId27" tooltip="Reșița" display="https://ro.wikipedia.org/wiki/Re%C8%99i%C8%9Ba"/>
+    <hyperlink ref="A35" r:id="rId28" tooltip="Călărași" display="https://ro.wikipedia.org/wiki/C%C4%83l%C4%83ra%C8%99i"/>
+    <hyperlink ref="A36" r:id="rId29" tooltip="Giurgiu" display="https://ro.wikipedia.org/wiki/Giurgiu"/>
+    <hyperlink ref="A37" r:id="rId30" tooltip="Deva" display="https://ro.wikipedia.org/wiki/Deva"/>
+    <hyperlink ref="A38" r:id="rId31" tooltip="Zalău" display="https://ro.wikipedia.org/wiki/Zal%C4%83u"/>
+    <hyperlink ref="A39" r:id="rId32" tooltip="Sfântu Gheorghe" display="https://ro.wikipedia.org/wiki/Sf%C3%A2ntu_Gheorghe"/>
+    <hyperlink ref="A40" r:id="rId33" tooltip="Slobozia" display="https://ro.wikipedia.org/wiki/Slobozia"/>
+    <hyperlink ref="A41" r:id="rId34" tooltip="Alexandria, România" display="https://ro.wikipedia.org/wiki/Alexandria,_Rom%C3%A2nia"/>
+    <hyperlink ref="A42" r:id="rId35" tooltip="Miercurea Ciuc" display="https://ro.wikipedia.org/wiki/Miercurea_Ciuc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>